--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N2">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O2">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P2">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q2">
-        <v>2.193883765740333</v>
+        <v>0.4101866008049999</v>
       </c>
       <c r="R2">
-        <v>19.744953891663</v>
+        <v>3.691679407245</v>
       </c>
       <c r="S2">
-        <v>0.0006129358459491995</v>
+        <v>0.0001131290880167955</v>
       </c>
       <c r="T2">
-        <v>0.0006129358459491993</v>
+        <v>0.0001131290880167955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.768513</v>
       </c>
       <c r="O3">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P3">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q3">
-        <v>16.49805200276567</v>
+        <v>1.780512419896111</v>
       </c>
       <c r="R3">
-        <v>148.482468024891</v>
+        <v>16.024611779065</v>
       </c>
       <c r="S3">
-        <v>0.004609290436777834</v>
+        <v>0.0004910636911837649</v>
       </c>
       <c r="T3">
-        <v>0.004609290436777831</v>
+        <v>0.0004910636911837649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.302142</v>
       </c>
       <c r="O4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P4">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q4">
-        <v>39.10303410279933</v>
+        <v>4.220100522412221</v>
       </c>
       <c r="R4">
-        <v>351.927306925194</v>
+        <v>37.98090470171</v>
       </c>
       <c r="S4">
-        <v>0.0109247589417718</v>
+        <v>0.001163899850708818</v>
       </c>
       <c r="T4">
-        <v>0.0109247589417718</v>
+        <v>0.001163899850708818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N5">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O5">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P5">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q5">
-        <v>127.6738753730502</v>
+        <v>221.185960327308</v>
       </c>
       <c r="R5">
-        <v>1149.064878357452</v>
+        <v>1990.673642945772</v>
       </c>
       <c r="S5">
-        <v>0.03567002775144083</v>
+        <v>0.06100288484519033</v>
       </c>
       <c r="T5">
-        <v>0.03567002775144082</v>
+        <v>0.06100288484519033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.768513</v>
       </c>
       <c r="O6">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P6">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q6">
         <v>960.1102247039072</v>
@@ -818,10 +818,10 @@
         <v>8640.992022335166</v>
       </c>
       <c r="S6">
-        <v>0.2682393579701697</v>
+        <v>0.2647975187468135</v>
       </c>
       <c r="T6">
-        <v>0.2682393579701697</v>
+        <v>0.2647975187468135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.302142</v>
       </c>
       <c r="O7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P7">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q7">
         <v>2275.615500105686</v>
@@ -880,10 +880,10 @@
         <v>20480.53950095118</v>
       </c>
       <c r="S7">
-        <v>0.6357703782641861</v>
+        <v>0.6276126662806931</v>
       </c>
       <c r="T7">
-        <v>0.6357703782641861</v>
+        <v>0.6276126662806931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2113696666666667</v>
+        <v>0.366183</v>
       </c>
       <c r="N8">
-        <v>0.634109</v>
+        <v>1.098549</v>
       </c>
       <c r="O8">
-        <v>0.03795977003925348</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="P8">
-        <v>0.03795977003925347</v>
+        <v>0.0639836884691917</v>
       </c>
       <c r="Q8">
-        <v>6.001800115632221</v>
+        <v>10.39769426901</v>
       </c>
       <c r="R8">
-        <v>54.01620104068999</v>
+        <v>93.57924842109</v>
       </c>
       <c r="S8">
-        <v>0.001676806441863452</v>
+        <v>0.002867674535984561</v>
       </c>
       <c r="T8">
-        <v>0.001676806441863451</v>
+        <v>0.002867674535984561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.768513</v>
       </c>
       <c r="O9">
-        <v>0.2854582680725092</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="P9">
-        <v>0.2854582680725091</v>
+        <v>0.2777364052521014</v>
       </c>
       <c r="Q9">
-        <v>45.1336629424811</v>
+        <v>45.13366294248111</v>
       </c>
       <c r="R9">
-        <v>406.2029664823299</v>
+        <v>406.2029664823301</v>
       </c>
       <c r="S9">
-        <v>0.01260961966556162</v>
+        <v>0.01244782281410419</v>
       </c>
       <c r="T9">
-        <v>0.01260961966556162</v>
+        <v>0.01244782281410419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>11.302142</v>
       </c>
       <c r="O10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="P10">
-        <v>0.6765819618882374</v>
+        <v>0.6582799062787069</v>
       </c>
       <c r="Q10">
         <v>106.9740331118022</v>
       </c>
       <c r="R10">
-        <v>962.7662980062198</v>
+        <v>962.76629800622</v>
       </c>
       <c r="S10">
-        <v>0.02988682468227934</v>
+        <v>0.02950334014730487</v>
       </c>
       <c r="T10">
-        <v>0.02988682468227934</v>
+        <v>0.02950334014730487</v>
       </c>
     </row>
   </sheetData>
